--- a/BusinessRulesExcelMockup.xlsx
+++ b/BusinessRulesExcelMockup.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="302">
   <si>
     <t>R3</t>
   </si>
@@ -1621,6 +1621,12 @@
   </si>
   <si>
     <t xml:space="preserve">Hello everyone test run 2. </t>
+  </si>
+  <si>
+    <t>One more change for the night!</t>
+  </si>
+  <si>
+    <t>Gracias!</t>
   </si>
 </sst>
 </file>
@@ -2105,6 +2111,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2179,39 +2218,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2657,7 +2663,7 @@
   <dimension ref="A1:AU51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,22 +2682,22 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="75"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="86"/>
       <c r="X1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2701,33 +2707,33 @@
       <c r="Z1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="77" t="s">
+      <c r="AA1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="75" t="s">
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77" t="s">
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="65"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="76"/>
       <c r="AT1" s="10" t="s">
         <v>10</v>
       </c>
@@ -3933,38 +3939,38 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="59" t="s">
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="59" t="s">
+      <c r="M19" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="N19" s="62" t="s">
+      <c r="N19" s="73" t="s">
         <v>120</v>
       </c>
       <c r="O19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="62" t="s">
+      <c r="P19" s="73" t="s">
         <v>121</v>
       </c>
       <c r="Q19" s="37" t="s">
@@ -3974,64 +3980,64 @@
         <v>123</v>
       </c>
       <c r="S19" s="37"/>
-      <c r="T19" s="59" t="s">
+      <c r="T19" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="U19" s="59" t="s">
+      <c r="U19" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
       <c r="Z19" s="29"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58" t="s">
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="58">
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="69">
         <v>1</v>
       </c>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="56" t="s">
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
+      <c r="AM19" s="69"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="67" t="s">
         <v>126</v>
       </c>
       <c r="AU19" s="42"/>
     </row>
     <row r="20" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
       <c r="O20" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="57"/>
+      <c r="P20" s="68"/>
       <c r="Q20" s="37" t="s">
         <v>127</v>
       </c>
@@ -4039,33 +4045,33 @@
         <v>128</v>
       </c>
       <c r="S20" s="37"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
       <c r="Z20" s="29"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="57"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="68"/>
       <c r="AU20" s="43"/>
     </row>
     <row r="21" spans="1:47" ht="96" x14ac:dyDescent="0.25">
@@ -6383,55 +6389,59 @@
       <c r="AU50" s="40"/>
     </row>
     <row r="51" spans="1:47" ht="36" x14ac:dyDescent="0.25">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="85"/>
-      <c r="R51" s="85"/>
-      <c r="S51" s="85"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="84"/>
-      <c r="Z51" s="86"/>
-      <c r="AA51" s="87"/>
-      <c r="AB51" s="87"/>
-      <c r="AC51" s="87"/>
-      <c r="AD51" s="84"/>
-      <c r="AE51" s="84"/>
-      <c r="AF51" s="84"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="84"/>
-      <c r="AI51" s="87"/>
-      <c r="AJ51" s="87"/>
-      <c r="AK51" s="87"/>
-      <c r="AL51" s="87"/>
-      <c r="AM51" s="87"/>
-      <c r="AN51" s="88"/>
-      <c r="AO51" s="88"/>
-      <c r="AP51" s="88"/>
-      <c r="AQ51" s="88"/>
-      <c r="AR51" s="88"/>
-      <c r="AS51" s="88"/>
-      <c r="AT51" s="89"/>
-      <c r="AU51" s="89"/>
+      <c r="B51" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="62"/>
+      <c r="AB51" s="62"/>
+      <c r="AC51" s="62"/>
+      <c r="AD51" s="59"/>
+      <c r="AE51" s="59"/>
+      <c r="AF51" s="59"/>
+      <c r="AG51" s="59"/>
+      <c r="AH51" s="59"/>
+      <c r="AI51" s="62"/>
+      <c r="AJ51" s="62"/>
+      <c r="AK51" s="62"/>
+      <c r="AL51" s="62"/>
+      <c r="AM51" s="62"/>
+      <c r="AN51" s="63"/>
+      <c r="AO51" s="63"/>
+      <c r="AP51" s="63"/>
+      <c r="AQ51" s="63"/>
+      <c r="AR51" s="63"/>
+      <c r="AS51" s="63"/>
+      <c r="AT51" s="64"/>
+      <c r="AU51" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -6577,7 +6587,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{344E85D3-B66B-4DC5-9E09-0331F2861B67}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D2FF29F-8674-42D5-BB22-9B2740F484BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
